--- a/jugadores.xlsx
+++ b/jugadores.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VICTOR\Desktop\VICTOR TODO\Fantasy Wallpaper\ACB Fantasy\Python\Calculadora Fantasy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21213B8-F230-4BF1-86D2-4DB4FA46EA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CA34342-8873-4333-BE14-B02E7E69263F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="255">
   <si>
     <t>Nombre</t>
   </si>
@@ -763,6 +763,33 @@
   </si>
   <si>
     <t>1.018.000 €</t>
+  </si>
+  <si>
+    <t>Trey Lyles</t>
+  </si>
+  <si>
+    <t>Ike Iroegbu</t>
+  </si>
+  <si>
+    <t>Markquis Nowell</t>
+  </si>
+  <si>
+    <t>Zach Hicks</t>
+  </si>
+  <si>
+    <t>Henri Drell</t>
+  </si>
+  <si>
+    <t>Alexandre Chassang</t>
+  </si>
+  <si>
+    <t>Aleksandar Cvetkovic</t>
+  </si>
+  <si>
+    <t>Mihajlo Andric</t>
+  </si>
+  <si>
+    <t>Wilhelm Falk</t>
   </si>
 </sst>
 </file>
@@ -1110,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C234"/>
+  <dimension ref="A1:C243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="C234" sqref="C234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,7 +1161,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1145,7 +1172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1156,7 +1183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1167,7 +1194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1178,7 +1205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1189,7 +1216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1200,7 +1227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1211,7 +1238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1762,44 +1789,44 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>62</v>
+      <c r="A59" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="B59" s="3">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" s="3">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" s="3">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" s="3">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>5</v>
@@ -1807,43 +1834,43 @@
     </row>
     <row r="63" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" s="3">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" s="3">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" s="3">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" s="3">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>7</v>
@@ -1851,10 +1878,10 @@
     </row>
     <row r="67" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" s="3">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>7</v>
@@ -1862,21 +1889,21 @@
     </row>
     <row r="68" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" s="3">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" s="3">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>3</v>
@@ -1884,43 +1911,43 @@
     </row>
     <row r="70" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" s="3">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" s="3">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" s="3">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" s="3">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>7</v>
@@ -1928,87 +1955,87 @@
     </row>
     <row r="74" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" s="3">
         <v>565</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" s="3">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" s="3">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" s="3">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" s="3">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" s="3">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" s="3">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" s="3">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>5</v>
@@ -2016,10 +2043,10 @@
     </row>
     <row r="82" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" s="3">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>5</v>
@@ -2027,54 +2054,54 @@
     </row>
     <row r="83" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" s="3">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" s="3">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" s="3">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" s="3">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" s="3">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>7</v>
@@ -2082,10 +2109,10 @@
     </row>
     <row r="88" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88" s="3">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>7</v>
@@ -2093,87 +2120,87 @@
     </row>
     <row r="89" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" s="3">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B90" s="3">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B91" s="3">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B92" s="3">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B93" s="3">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B94" s="3">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B95" s="3">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B96" s="3">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>7</v>
@@ -2181,32 +2208,32 @@
     </row>
     <row r="97" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B97" s="3">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B98" s="3">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B99" s="3">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>5</v>
@@ -2214,10 +2241,10 @@
     </row>
     <row r="100" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B100" s="3">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>5</v>
@@ -2225,76 +2252,76 @@
     </row>
     <row r="101" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B101" s="3">
-        <v>475.5</v>
+        <v>477</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B102" s="3">
-        <v>475</v>
+        <v>475.5</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B103" s="3">
-        <v>465.8</v>
+        <v>475</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B104" s="3">
-        <v>465</v>
+        <v>465.8</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" s="3">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B106" s="3">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B107" s="3">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>5</v>
@@ -2302,7 +2329,7 @@
     </row>
     <row r="108" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B108" s="3">
         <v>460</v>
@@ -2313,7 +2340,7 @@
     </row>
     <row r="109" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B109" s="3">
         <v>460</v>
@@ -2324,32 +2351,32 @@
     </row>
     <row r="110" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B110" s="3">
         <v>460</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B111" s="3">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B112" s="3">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>5</v>
@@ -2357,7 +2384,7 @@
     </row>
     <row r="113" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B113" s="3">
         <v>450</v>
@@ -2368,29 +2395,29 @@
     </row>
     <row r="114" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B114" s="3">
         <v>450</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B115" s="3">
         <v>450</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B116" s="3">
         <v>450</v>
@@ -2401,7 +2428,7 @@
     </row>
     <row r="117" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B117" s="3">
         <v>450</v>
@@ -2412,10 +2439,10 @@
     </row>
     <row r="118" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B118" s="3">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>5</v>
@@ -2423,18 +2450,18 @@
     </row>
     <row r="119" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B119" s="3">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B120" s="3">
         <v>440</v>
@@ -2445,7 +2472,7 @@
     </row>
     <row r="121" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B121" s="3">
         <v>440</v>
@@ -2456,65 +2483,65 @@
     </row>
     <row r="122" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" s="3">
+        <v>440</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B123" s="3">
         <v>435</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+      <c r="C123" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B123" s="3">
-        <v>430</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="B124" s="3">
         <v>430</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B125" s="3">
         <v>430</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B126" s="3">
         <v>430</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B127" s="3">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>3</v>
@@ -2522,87 +2549,87 @@
     </row>
     <row r="128" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B128" s="3">
         <v>425</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B129" s="3">
         <v>425</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B130" s="3">
         <v>425</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B131" s="3">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B132" s="3">
         <v>420</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B133" s="3">
         <v>420</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B134" s="3">
         <v>420</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B135" s="3">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>7</v>
@@ -2610,10 +2637,10 @@
     </row>
     <row r="136" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B136" s="3">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>7</v>
@@ -2621,7 +2648,7 @@
     </row>
     <row r="137" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B137" s="3">
         <v>415</v>
@@ -2632,7 +2659,7 @@
     </row>
     <row r="138" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B138" s="3">
         <v>415</v>
@@ -2643,98 +2670,98 @@
     </row>
     <row r="139" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B139" s="3">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
-        <v>143</v>
+      <c r="A140" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="B140" s="3">
-        <v>410</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>7</v>
+        <v>415</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B141" s="3">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B142" s="3">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
-        <v>146</v>
+      <c r="A143" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="B143" s="3">
-        <v>400</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>5</v>
+        <v>410</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B144" s="3">
         <v>400</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B145" s="3">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B146" s="3">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B147" s="3">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>7</v>
@@ -2742,76 +2769,76 @@
     </row>
     <row r="148" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B148" s="3">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>152</v>
+      <c r="A149" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="B149" s="3">
-        <v>380</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>3</v>
+        <v>390</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B150" s="3">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B151" s="3">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B152" s="3">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B153" s="3">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B154" s="3">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>5</v>
@@ -2819,10 +2846,10 @@
     </row>
     <row r="155" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B155" s="3">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>5</v>
@@ -2830,54 +2857,54 @@
     </row>
     <row r="156" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B156" s="3">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B157" s="3">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B158" s="3">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B159" s="3">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B160" s="3">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>5</v>
@@ -2885,21 +2912,21 @@
     </row>
     <row r="161" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B161" s="3">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B162" s="3">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>7</v>
@@ -2907,10 +2934,10 @@
     </row>
     <row r="163" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B163" s="3">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>7</v>
@@ -2918,7 +2945,7 @@
     </row>
     <row r="164" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B164" s="3">
         <v>350</v>
@@ -2929,7 +2956,7 @@
     </row>
     <row r="165" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B165" s="3">
         <v>350</v>
@@ -2940,7 +2967,7 @@
     </row>
     <row r="166" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B166" s="3">
         <v>350</v>
@@ -2951,21 +2978,21 @@
     </row>
     <row r="167" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B167" s="3">
         <v>350</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B168" s="3">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>5</v>
@@ -2973,10 +3000,10 @@
     </row>
     <row r="169" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B169" s="3">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>5</v>
@@ -2984,10 +3011,10 @@
     </row>
     <row r="170" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B170" s="3">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>7</v>
@@ -2995,21 +3022,21 @@
     </row>
     <row r="171" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B171" s="3">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" ht="33" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B172" s="3">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>5</v>
@@ -3017,7 +3044,7 @@
     </row>
     <row r="173" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B173" s="3">
         <v>340</v>
@@ -3028,98 +3055,98 @@
     </row>
     <row r="174" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B174" s="3">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B175" s="3">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B176" s="3">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B177" s="3">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B178" s="3">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B179" s="3">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
-        <v>183</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="B180" s="3">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B181" s="3">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B182" s="3">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>3</v>
@@ -3127,10 +3154,10 @@
     </row>
     <row r="183" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B183" s="3">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>7</v>
@@ -3138,21 +3165,21 @@
     </row>
     <row r="184" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B184" s="3">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B185" s="3">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>5</v>
@@ -3160,76 +3187,76 @@
     </row>
     <row r="186" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B186" s="3">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B187" s="3">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B188" s="3">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
-        <v>192</v>
+      <c r="A189" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="B189" s="3">
-        <v>300</v>
-      </c>
-      <c r="C189" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B190" s="3">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B191" s="3">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B192" s="3">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>5</v>
@@ -3237,21 +3264,21 @@
     </row>
     <row r="193" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B193" s="3">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B194" s="3">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>3</v>
@@ -3259,32 +3286,32 @@
     </row>
     <row r="195" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B195" s="3">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
-        <v>199</v>
+      <c r="A196" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="B196" s="3">
-        <v>270</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>7</v>
+        <v>295</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B197" s="3">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>7</v>
@@ -3292,21 +3319,21 @@
     </row>
     <row r="198" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B198" s="3">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B199" s="3">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>5</v>
@@ -3314,10 +3341,10 @@
     </row>
     <row r="200" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B200" s="3">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>5</v>
@@ -3325,10 +3352,10 @@
     </row>
     <row r="201" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B201" s="3">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>3</v>
@@ -3336,98 +3363,98 @@
     </row>
     <row r="202" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B202" s="3">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B203" s="3">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B204" s="3">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B205" s="3">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B206" s="3">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B207" s="3">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B208" s="3">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B209" s="3">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B210" s="3">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>5</v>
@@ -3435,54 +3462,54 @@
     </row>
     <row r="211" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B211" s="3">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>128</v>
+        <v>208</v>
       </c>
       <c r="B212" s="3">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B213" s="3">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B214" s="3">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B215" s="3">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>7</v>
@@ -3490,21 +3517,21 @@
     </row>
     <row r="216" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B216" s="3">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B217" s="3">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>5</v>
@@ -3512,10 +3539,10 @@
     </row>
     <row r="218" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B218" s="3">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>3</v>
@@ -3523,10 +3550,10 @@
     </row>
     <row r="219" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>221</v>
+        <v>128</v>
       </c>
       <c r="B219" s="3">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>5</v>
@@ -3534,54 +3561,54 @@
     </row>
     <row r="220" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B220" s="3">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B221" s="3">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B222" s="3">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A223" s="2" t="s">
-        <v>225</v>
+      <c r="A223" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="B223" s="3">
-        <v>95</v>
-      </c>
-      <c r="C223" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C223" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B224" s="3">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>3</v>
@@ -3589,32 +3616,32 @@
     </row>
     <row r="225" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B225" s="3">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B226" s="3">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B227" s="3">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>5</v>
@@ -3622,10 +3649,10 @@
     </row>
     <row r="228" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B228" s="3">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>3</v>
@@ -3633,67 +3660,166 @@
     </row>
     <row r="229" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B229" s="3">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B230" s="3">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A231" s="2" t="s">
-        <v>233</v>
+      <c r="A231" s="1" t="s">
+        <v>254</v>
       </c>
       <c r="B231" s="3">
-        <v>70</v>
-      </c>
-      <c r="C231" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B232" s="3">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B233" s="3">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B234" s="3">
+        <v>85</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B235" s="3">
+        <v>85</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B236" s="3">
+        <v>80</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B237" s="3">
+        <v>75</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B238" s="3">
+        <v>75</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B239" s="3">
+        <v>75</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B240" s="3">
+        <v>70</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B241" s="3">
+        <v>65</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B242" s="3">
+        <v>62</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B234" s="3">
+      <c r="B243" s="3">
         <v>60</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="C243" s="2" t="s">
         <v>7</v>
       </c>
     </row>
